--- a/tables/app/If your identity was not revealed, would you want to provide your phone’s location (see question 10)?.xlsx
+++ b/tables/app/If your identity was not revealed, would you want to provide your phone’s location (see question 10)?.xlsx
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C2">
-        <v>43.3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C3">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
     </row>
   </sheetData>
